--- a/Excel/TI/Mon_TI_2024_11_17.xlsx
+++ b/Excel/TI/Mon_TI_2024_11_17.xlsx
@@ -628,33 +628,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LaMelo Ball</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>33.4</v>
+        <v>40.2</v>
       </c>
       <c r="G2" t="n">
-        <v>35.9</v>
+        <v>34.2</v>
       </c>
       <c r="H2" t="n">
-        <v>35.9</v>
+        <v>34.2</v>
       </c>
       <c r="I2" t="n">
         <v>11</v>
@@ -663,37 +659,37 @@
         <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O2" t="n">
         <v>41</v>
       </c>
       <c r="P2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="R2" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -728,12 +724,12 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -743,7 +739,7 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -753,7 +749,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -763,33 +759,29 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>2</v>
-      </c>
+        <v>-3.2</v>
+      </c>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Jalen Williams</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -800,133 +792,131 @@
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>27.8</v>
+        <v>37.2</v>
       </c>
       <c r="G3" t="n">
-        <v>34.8</v>
+        <v>33.4</v>
       </c>
       <c r="H3" t="n">
-        <v>34.8</v>
+        <v>33.4</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>22</v>
       </c>
       <c r="O3" t="n">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="P3" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q3" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R3" t="n">
-        <v>-8</v>
+        <v>22</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
           <t>POR</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
         <is>
           <t>SAC</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>GSW</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>8.199999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
@@ -934,68 +924,70 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pascal Siakam</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>33.8</v>
+        <v>23.2</v>
       </c>
       <c r="G4" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="H4" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>43</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="Q4" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="R4" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1035,7 +1027,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1045,7 +1037,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1055,7 +1047,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1065,16 +1057,16 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>-2.4</v>
+        <v>9.6</v>
       </c>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
@@ -1082,60 +1074,60 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
+          <t>Jalen Johnson</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>30.8</v>
+        <v>37.4</v>
       </c>
       <c r="G5" t="n">
-        <v>33.2</v>
+        <v>32.7</v>
       </c>
       <c r="H5" t="n">
-        <v>33.2</v>
+        <v>32.7</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="O5" t="n">
+        <v>41</v>
+      </c>
+      <c r="P5" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>27</v>
+      </c>
+      <c r="R5" t="n">
         <v>46</v>
       </c>
-      <c r="P5" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>24</v>
-      </c>
-      <c r="R5" t="n">
-        <v>31</v>
-      </c>
       <c r="S5" t="inlineStr">
         <is>
           <t>@</t>
@@ -1143,7 +1135,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1178,32 +1170,32 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1213,7 +1205,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1222,7 +1214,7 @@
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>2.6</v>
+        <v>-0.7</v>
       </c>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
@@ -1230,59 +1222,65 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>James Harden</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>Evan Mobley</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>31</v>
+        <v>33.6</v>
       </c>
       <c r="G6" t="n">
-        <v>33.1</v>
+        <v>32.6</v>
       </c>
       <c r="H6" t="n">
-        <v>33.1</v>
+        <v>32.6</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>7</v>
+      </c>
+      <c r="L6" t="n">
         <v>4</v>
       </c>
-      <c r="L6" t="n">
-        <v>5</v>
-      </c>
       <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="n">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O6" t="n">
+        <v>25</v>
+      </c>
+      <c r="P6" t="n">
         <v>29</v>
       </c>
-      <c r="P6" t="n">
-        <v>40</v>
-      </c>
       <c r="Q6" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="R6" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1291,7 +1289,7 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1326,12 +1324,12 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1341,7 +1339,7 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
@@ -1351,17 +1349,17 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1370,7 +1368,7 @@
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.7</v>
+        <v>2.4</v>
       </c>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
@@ -1378,59 +1376,59 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>35.2</v>
+        <v>31.8</v>
       </c>
       <c r="G7" t="n">
-        <v>32.8</v>
+        <v>32.5</v>
       </c>
       <c r="H7" t="n">
-        <v>32.8</v>
+        <v>32.5</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="O7" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P7" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="Q7" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="R7" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1439,7 +1437,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1479,7 +1477,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1489,36 +1487,36 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
           <t>PHI</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
       <c r="AI7" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>-1.8</v>
+        <v>-0.1</v>
       </c>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
@@ -1526,60 +1524,56 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Evan Mobley</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Probable</t>
-        </is>
-      </c>
+          <t>Pascal Siakam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>33.6</v>
+        <v>29.6</v>
       </c>
       <c r="G8" t="n">
-        <v>32.6</v>
+        <v>32.2</v>
       </c>
       <c r="H8" t="n">
-        <v>32.6</v>
+        <v>32.2</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
         <v>4</v>
       </c>
-      <c r="M8" t="n">
-        <v>2</v>
-      </c>
       <c r="N8" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="O8" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="P8" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="Q8" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R8" t="n">
         <v>25</v>
@@ -1591,18 +1585,16 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>17</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1631,27 +1623,27 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1661,7 +1653,7 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1670,7 +1662,7 @@
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>2.4</v>
+        <v>-3.8</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
@@ -1678,12 +1670,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1694,56 +1686,52 @@
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>30</v>
+        <v>28.6</v>
       </c>
       <c r="G9" t="n">
-        <v>32.4</v>
+        <v>32.2</v>
       </c>
       <c r="H9" t="n">
-        <v>32.4</v>
+        <v>32.2</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
       </c>
       <c r="K9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L9" t="n">
         <v>2</v>
       </c>
-      <c r="L9" t="n">
-        <v>5</v>
-      </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N9" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O9" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="P9" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>46</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>30</v>
+      </c>
+      <c r="R9" t="n">
+        <v>24</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1778,22 +1766,22 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -1803,7 +1791,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -1813,16 +1801,16 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>-4.4</v>
+        <v>1.4</v>
       </c>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
@@ -1830,68 +1818,68 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jalen Johnson</t>
+          <t>Jarrett Allen</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>34.6</v>
+        <v>25.6</v>
       </c>
       <c r="G10" t="n">
-        <v>32.2</v>
+        <v>31.9</v>
       </c>
       <c r="H10" t="n">
-        <v>32.2</v>
+        <v>31.9</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
         <v>2</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>4</v>
       </c>
-      <c r="L10" t="n">
-        <v>2</v>
-      </c>
       <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>49</v>
+      </c>
+      <c r="O10" t="n">
+        <v>27</v>
+      </c>
+      <c r="P10" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q10" t="n">
         <v>4</v>
       </c>
-      <c r="N10" t="n">
-        <v>41</v>
-      </c>
-      <c r="O10" t="n">
-        <v>35</v>
-      </c>
-      <c r="P10" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>46</v>
-      </c>
       <c r="R10" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -1931,27 +1919,27 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -1961,16 +1949,16 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
@@ -1994,16 +1982,16 @@
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>26.8</v>
+        <v>26.2</v>
       </c>
       <c r="G11" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="H11" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -2012,26 +2000,26 @@
         <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
+        <v>33</v>
+      </c>
+      <c r="O11" t="n">
         <v>32</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>13</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>22</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>31</v>
       </c>
-      <c r="R11" t="n">
-        <v>36</v>
-      </c>
       <c r="S11" t="inlineStr">
         <is>
           <t>vs</t>
@@ -2118,7 +2106,7 @@
         </is>
       </c>
       <c r="AJ11" t="n">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
@@ -2126,12 +2114,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Cam Thomas</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -2142,131 +2130,129 @@
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>34.6</v>
+        <v>35.2</v>
       </c>
       <c r="G12" t="n">
-        <v>31.1</v>
+        <v>31.5</v>
       </c>
       <c r="H12" t="n">
-        <v>31.1</v>
+        <v>31.5</v>
       </c>
       <c r="I12" t="n">
         <v>13</v>
       </c>
       <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5</v>
+      </c>
+      <c r="L12" t="n">
         <v>3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="n">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="O12" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="P12" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q12" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="R12" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
+        <v>62</v>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
           <t>CHA</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ12" t="n">
-        <v>-9.1</v>
+        <v>4.8</v>
       </c>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
@@ -2279,58 +2265,54 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jarrett Allen</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Probable</t>
-        </is>
-      </c>
+          <t>Darius Garland</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G13" t="n">
-        <v>30.6</v>
+        <v>31.3</v>
       </c>
       <c r="H13" t="n">
-        <v>30.6</v>
+        <v>31.3</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="O13" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="Q13" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R13" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -2418,7 +2400,7 @@
         </is>
       </c>
       <c r="AJ13" t="n">
-        <v>-2.1</v>
+        <v>3.1</v>
       </c>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
@@ -2426,32 +2408,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Darius Garland</t>
+          <t>Bam Adebayo</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="G14" t="n">
         <v>31</v>
       </c>
-      <c r="G14" t="n">
-        <v>30.2</v>
-      </c>
       <c r="H14" t="n">
-        <v>30.2</v>
+        <v>31</v>
       </c>
       <c r="I14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
@@ -2460,113 +2442,111 @@
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="O14" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="P14" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="Q14" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="R14" t="n">
         <v>25</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>62</v>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
           <t>CHA</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ14" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
@@ -2574,12 +2554,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cam Thomas</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -2590,52 +2570,54 @@
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>25</v>
+        <v>28.4</v>
       </c>
       <c r="G15" t="n">
-        <v>28.9</v>
+        <v>30.2</v>
       </c>
       <c r="H15" t="n">
-        <v>28.9</v>
+        <v>30.2</v>
       </c>
       <c r="I15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
       </c>
       <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
         <v>5</v>
       </c>
-      <c r="L15" t="n">
-        <v>3</v>
-      </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>50</v>
+      </c>
+      <c r="P15" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q15" t="n">
         <v>26</v>
       </c>
-      <c r="O15" t="n">
-        <v>28</v>
-      </c>
-      <c r="P15" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>36</v>
-      </c>
-      <c r="R15" t="n">
-        <v>11</v>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -2670,12 +2652,12 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -2685,36 +2667,36 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ15" t="n">
-        <v>3.1</v>
+        <v>-2.2</v>
       </c>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
@@ -2722,59 +2704,59 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bam Adebayo</t>
+          <t>Michael Porter Jr.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>28.6</v>
+        <v>32.8</v>
       </c>
       <c r="G16" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="H16" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O16" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="P16" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q16" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="R16" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -2783,7 +2765,7 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -2818,12 +2800,12 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -2838,22 +2820,22 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
@@ -2862,7 +2844,7 @@
         </is>
       </c>
       <c r="AJ16" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
@@ -2870,68 +2852,68 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Michael Porter Jr.</t>
+          <t>Rudy Gobert</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>32.2</v>
+        <v>26.4</v>
       </c>
       <c r="G17" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="H17" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="I17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" t="n">
         <v>2</v>
       </c>
-      <c r="K17" t="n">
-        <v>3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
       <c r="N17" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O17" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="P17" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="Q17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R17" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -2971,27 +2953,27 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
@@ -3001,16 +2983,16 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ17" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
@@ -3018,59 +3000,67 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>28.8</v>
+        <v>26.2</v>
       </c>
       <c r="G18" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="H18" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="I18" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
         <v>3</v>
       </c>
-      <c r="K18" t="n">
-        <v>5</v>
-      </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>24</v>
-      </c>
-      <c r="O18" t="n">
-        <v>24</v>
-      </c>
-      <c r="P18" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>29</v>
-      </c>
-      <c r="R18" t="n">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -3079,7 +3069,7 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -3114,32 +3104,32 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -3149,7 +3139,7 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
@@ -3158,7 +3148,7 @@
         </is>
       </c>
       <c r="AJ18" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
@@ -3166,76 +3156,72 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Deandre Ayton</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Day-To-Day</t>
-        </is>
-      </c>
+          <t>Lauri Markkanen</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F19" t="n">
-        <v>22.4</v>
+        <v>26</v>
       </c>
       <c r="G19" t="n">
-        <v>25.1</v>
+        <v>26.3</v>
       </c>
       <c r="H19" t="n">
-        <v>25.1</v>
+        <v>26.3</v>
       </c>
       <c r="I19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
         <v>2</v>
       </c>
-      <c r="K19" t="n">
-        <v>5</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N19" t="n">
+        <v>42</v>
+      </c>
+      <c r="O19" t="n">
+        <v>21</v>
       </c>
       <c r="P19" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q19" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="R19" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -3275,7 +3261,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -3285,49 +3271,53 @@
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ19" t="n">
-        <v>-2.1</v>
-      </c>
-      <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
+        <v>1.9</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>Deandre Ayton</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3337,63 +3327,61 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>19.4</v>
+        <v>22.4</v>
       </c>
       <c r="G20" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="H20" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="n">
-        <v>21</v>
-      </c>
-      <c r="O20" t="n">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P20" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="Q20" t="n">
-        <v>13</v>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="R20" t="n">
+        <v>37</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -3433,7 +3421,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -3443,43 +3431,39 @@
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ20" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>-17.6</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>1</v>
-      </c>
+        <v>-2.1</v>
+      </c>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3500,22 +3484,22 @@
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>24</v>
+        <v>23.4</v>
       </c>
       <c r="G21" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="H21" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
         <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21" t="n">
         <v>2</v>
@@ -3524,16 +3508,14 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
+        <v>26</v>
+      </c>
+      <c r="O21" t="n">
         <v>17</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>39</v>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="Q21" t="inlineStr">
         <is>
           <t>-</t>
@@ -3630,7 +3612,7 @@
         </is>
       </c>
       <c r="AJ21" t="n">
-        <v>-3.1</v>
+        <v>-2.1</v>
       </c>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
@@ -3638,59 +3620,63 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Jalen Green</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>19.4</v>
+        <v>21.4</v>
       </c>
       <c r="G22" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="H22" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="I22" t="n">
         <v>12</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" t="n">
         <v>4</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O22" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P22" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>13</v>
-      </c>
-      <c r="R22" t="n">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -3699,67 +3685,67 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
           <t>CHI</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
@@ -3769,7 +3755,7 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
@@ -3778,7 +3764,7 @@
         </is>
       </c>
       <c r="AJ22" t="n">
-        <v>5.4</v>
+        <v>-3.2</v>
       </c>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
@@ -3791,58 +3777,54 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="G23" t="n">
-        <v>23.2</v>
+        <v>22.3</v>
       </c>
       <c r="H23" t="n">
-        <v>23.2</v>
+        <v>22.3</v>
       </c>
       <c r="I23" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O23" t="n">
-        <v>26</v>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>18</v>
+      </c>
+      <c r="P23" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>21</v>
       </c>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -3930,7 +3912,7 @@
         </is>
       </c>
       <c r="AJ23" t="n">
-        <v>-3.9</v>
+        <v>-0.3</v>
       </c>
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
@@ -3938,59 +3920,59 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Jalen Green</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>25.8</v>
+        <v>14.2</v>
       </c>
       <c r="G24" t="n">
-        <v>22.6</v>
+        <v>21.6</v>
       </c>
       <c r="H24" t="n">
-        <v>22.6</v>
+        <v>21.6</v>
       </c>
       <c r="I24" t="n">
         <v>13</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
         <v>3</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
+        <v>20</v>
+      </c>
+      <c r="P24" t="n">
         <v>18</v>
       </c>
-      <c r="O24" t="n">
-        <v>29</v>
-      </c>
-      <c r="P24" t="n">
-        <v>21</v>
-      </c>
       <c r="Q24" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="R24" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -3999,7 +3981,7 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -4034,32 +4016,32 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
@@ -4069,7 +4051,7 @@
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
@@ -4078,7 +4060,7 @@
         </is>
       </c>
       <c r="AJ24" t="n">
-        <v>0.1</v>
+        <v>7</v>
       </c>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
@@ -4086,63 +4068,69 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Nic Claxton</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Questionable</t>
-        </is>
-      </c>
+          <t>Miles Bridges</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F25" t="n">
-        <v>20.8</v>
+        <v>23.2</v>
       </c>
       <c r="G25" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="H25" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="I25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J25" t="n">
         <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>9</v>
-      </c>
-      <c r="O25" t="n">
-        <v>28</v>
-      </c>
-      <c r="P25" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R25" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -4151,7 +4139,7 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -4186,22 +4174,22 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
@@ -4211,17 +4199,17 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
@@ -4230,10 +4218,14 @@
         </is>
       </c>
       <c r="AJ25" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
+        <v>-0.3</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4246,7 +4238,11 @@
           <t>Amen Thompson</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>G</t>
@@ -4254,7 +4250,7 @@
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="G26" t="n">
         <v>21.2</v>
@@ -4263,13 +4259,13 @@
         <v>21.2</v>
       </c>
       <c r="I26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J26" t="n">
         <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
@@ -4278,16 +4274,16 @@
         <v>1</v>
       </c>
       <c r="N26" t="n">
+        <v>21</v>
+      </c>
+      <c r="O26" t="n">
         <v>40</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>29</v>
       </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
         <v>18</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>22</v>
       </c>
       <c r="R26" t="n">
         <v>22</v>
@@ -4534,42 +4530,38 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Miles Bridges</t>
+          <t>Fred VanVleet</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>17.6</v>
+        <v>24.6</v>
       </c>
       <c r="G28" t="n">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="H28" t="n">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28" t="n">
         <v>1</v>
@@ -4577,15 +4569,11 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N28" t="n">
+        <v>34</v>
+      </c>
+      <c r="O28" t="n">
+        <v>18</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -4593,10 +4581,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="R28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -4605,7 +4593,7 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -4645,7 +4633,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -4655,17 +4643,17 @@
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
@@ -4675,7 +4663,7 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
@@ -4684,14 +4672,10 @@
         </is>
       </c>
       <c r="AJ28" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>2</v>
-      </c>
+        <v>-6.7</v>
+      </c>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4719,16 +4703,16 @@
         <v>20.6</v>
       </c>
       <c r="G29" t="n">
-        <v>18.9</v>
+        <v>17.5</v>
       </c>
       <c r="H29" t="n">
-        <v>18.9</v>
+        <v>17.5</v>
       </c>
       <c r="I29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
         <v>3</v>
@@ -4740,20 +4724,20 @@
         <v>1</v>
       </c>
       <c r="N29" t="n">
+        <v>8</v>
+      </c>
+      <c r="O29" t="n">
         <v>-5</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>29</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
         <v>50</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="n">
         <v>21</v>
       </c>
-      <c r="R29" t="n">
-        <v>8</v>
-      </c>
       <c r="S29" t="inlineStr">
         <is>
           <t>@</t>
@@ -4840,10 +4824,10 @@
         </is>
       </c>
       <c r="AJ29" t="n">
-        <v>-8.699999999999999</v>
+        <v>-7.3</v>
       </c>
       <c r="AK29" t="n">
-        <v>-18.9</v>
+        <v>-17.5</v>
       </c>
       <c r="AL29" t="n">
         <v>0</v>
@@ -4852,12 +4836,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fred VanVleet</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -4868,45 +4852,43 @@
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>23.6</v>
+        <v>24.4</v>
       </c>
       <c r="G30" t="n">
-        <v>18.8</v>
+        <v>17.3</v>
       </c>
       <c r="H30" t="n">
-        <v>18.8</v>
+        <v>17.3</v>
       </c>
       <c r="I30" t="n">
         <v>11</v>
       </c>
       <c r="J30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>18</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="O30" t="n">
+        <v>9</v>
       </c>
       <c r="P30" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Q30" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="R30" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -4915,7 +4897,7 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
@@ -4955,7 +4937,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
@@ -4965,17 +4947,17 @@
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
@@ -4985,7 +4967,7 @@
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
@@ -4994,7 +4976,7 @@
         </is>
       </c>
       <c r="AJ30" t="n">
-        <v>-5.4</v>
+        <v>0.5</v>
       </c>
       <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="inlineStr"/>
@@ -5002,68 +4984,72 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Kyle Kuzma</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>23</v>
+        <v>19.2</v>
       </c>
       <c r="G31" t="n">
-        <v>18</v>
+        <v>17.2</v>
       </c>
       <c r="H31" t="n">
-        <v>18</v>
+        <v>17.2</v>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="O31" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="P31" t="n">
-        <v>48</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>36</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
@@ -5103,7 +5089,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
@@ -5113,7 +5099,7 @@
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
@@ -5123,7 +5109,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
@@ -5133,16 +5119,16 @@
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ31" t="n">
-        <v>2.3</v>
+        <v>-5.7</v>
       </c>
       <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="inlineStr"/>
@@ -5150,12 +5136,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Kyle Kuzma</t>
+          <t>Deni Avdija</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -5166,22 +5152,22 @@
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>17</v>
+        <v>14.2</v>
       </c>
       <c r="G32" t="n">
-        <v>17</v>
+        <v>15.8</v>
       </c>
       <c r="H32" t="n">
-        <v>17</v>
+        <v>15.8</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L32" t="n">
         <v>1</v>
@@ -5190,25 +5176,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O32" t="n">
-        <v>15</v>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>11</v>
+      </c>
+      <c r="R32" t="n">
+        <v>19</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -5217,7 +5197,7 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
@@ -5257,17 +5237,17 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
@@ -5277,17 +5257,17 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
@@ -5296,7 +5276,7 @@
         </is>
       </c>
       <c r="AJ32" t="n">
-        <v>-5.5</v>
+        <v>-1.9</v>
       </c>
       <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="inlineStr"/>
@@ -5304,56 +5284,56 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Deni Avdija</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>14.2</v>
+        <v>6.4</v>
       </c>
       <c r="G33" t="n">
-        <v>15.8</v>
+        <v>10.6</v>
       </c>
       <c r="H33" t="n">
-        <v>15.8</v>
+        <v>10.6</v>
       </c>
       <c r="I33" t="n">
         <v>13</v>
       </c>
       <c r="J33" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
+        <v>4</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-6</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
         <v>13</v>
-      </c>
-      <c r="O33" t="n">
-        <v>31</v>
-      </c>
-      <c r="P33" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>11</v>
       </c>
       <c r="R33" t="n">
         <v>19</v>
@@ -5365,7 +5345,7 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
@@ -5405,7 +5385,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
@@ -5415,27 +5395,27 @@
       </c>
       <c r="AD33" t="inlineStr">
         <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
           <t>HOU</t>
         </is>
       </c>
-      <c r="AE33" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF33" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
@@ -5444,7 +5424,7 @@
         </is>
       </c>
       <c r="AJ33" t="n">
-        <v>-1.9</v>
+        <v>3.9</v>
       </c>
       <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="inlineStr"/>
@@ -5452,15 +5432,19 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
+          <t>Donovan Mitchell</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>G</t>
@@ -5468,43 +5452,43 @@
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>9</v>
+        <v>38.2</v>
       </c>
       <c r="G34" t="n">
-        <v>11.2</v>
+        <v>32.9</v>
       </c>
       <c r="H34" t="n">
-        <v>11.2</v>
+        <v>32.9</v>
       </c>
       <c r="I34" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J34" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N34" t="n">
-        <v>-6</v>
+        <v>57</v>
       </c>
       <c r="O34" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="P34" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="Q34" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="R34" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -5513,7 +5497,7 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
@@ -5553,29 +5537,29 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
           <t>TOR</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="AE34" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF34" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
       <c r="AG34" t="inlineStr">
         <is>
           <t>vs</t>
@@ -5583,7 +5567,7 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AI34" t="inlineStr">
@@ -5592,7 +5576,7 @@
         </is>
       </c>
       <c r="AJ34" t="n">
-        <v>3.3</v>
+        <v>-5.9</v>
       </c>
       <c r="AK34" t="inlineStr"/>
       <c r="AL34" t="inlineStr"/>
@@ -5658,11 +5642,13 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
         <v>27</v>
-      </c>
-      <c r="R35" t="n">
-        <v>37</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -5811,14 +5797,16 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P36" t="n">
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
         <v>-1</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="R36" t="n">
         <v>49</v>
-      </c>
-      <c r="R36" t="n">
-        <v>23</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -5967,14 +5955,16 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P37" t="n">
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
         <v>3</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="R37" t="n">
         <v>24</v>
-      </c>
-      <c r="R37" t="n">
-        <v>40</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -6070,12 +6060,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Bradley Beal</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -6090,25 +6080,25 @@
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>27.2</v>
+        <v>26.2</v>
       </c>
       <c r="G38" t="n">
-        <v>27.2</v>
+        <v>26</v>
       </c>
       <c r="H38" t="n">
-        <v>27.2</v>
+        <v>26</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
         <v>2</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
@@ -6123,29 +6113,23 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="P38" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>40</v>
+      </c>
+      <c r="R38" t="n">
+        <v>13</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
@@ -6185,7 +6169,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
@@ -6195,17 +6179,17 @@
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
@@ -6215,16 +6199,16 @@
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ38" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AK38" t="inlineStr"/>
       <c r="AL38" t="inlineStr"/>
@@ -6232,12 +6216,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
+          <t>Nic Claxton</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -6247,30 +6231,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>26.2</v>
+        <v>20.8</v>
       </c>
       <c r="G39" t="n">
-        <v>26</v>
+        <v>21.2</v>
       </c>
       <c r="H39" t="n">
-        <v>26</v>
+        <v>21.2</v>
       </c>
       <c r="I39" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
@@ -6281,16 +6265,16 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="P39" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="Q39" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="R39" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -6299,7 +6283,7 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
@@ -6339,37 +6323,37 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AI39" t="inlineStr">
@@ -6378,7 +6362,7 @@
         </is>
       </c>
       <c r="AJ39" t="n">
-        <v>2</v>
+        <v>-1.6</v>
       </c>
       <c r="AK39" t="inlineStr"/>
       <c r="AL39" t="inlineStr"/>
